--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB377D54-EA12-4FED-ABF3-26F8568E469B}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{336733DE-A67C-4677-A2F1-1F10F179E681}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,33 @@
     <author>X</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E5488D7B-7EC0-455D-84F3-E7F6BC89850C}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{6C2794FB-EBF7-4C8B-B7FB-07AD3A78BA52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>X:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每秒20逻辑帧</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{E5488D7B-7EC0-455D-84F3-E7F6BC89850C}">
       <text>
         <r>
           <rPr>
@@ -56,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F7541568-D199-47EB-9FE0-E08664040CFE}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F7541568-D199-47EB-9FE0-E08664040CFE}">
       <text>
         <r>
           <rPr>
@@ -88,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +133,18 @@
   </si>
   <si>
     <t>赛道属性加成倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有马的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有赛道的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧的时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,23 +513,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
     </row>

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{336733DE-A67C-4677-A2F1-1F10F179E681}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D243AC43-72BD-468C-BA49-1F2F151A6E9E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,6 +223,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -492,7 +496,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D243AC43-72BD-468C-BA49-1F2F151A6E9E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DA94D9-EFBD-48EB-854D-459D295F1224}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,6 +227,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -496,7 +500,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4DA82427541F7ACA7EB84EB00B292A6AE8DE0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DA94D9-EFBD-48EB-854D-459D295F1224}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,15 +500,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -538,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4510CA-11FD-421F-B814-9817649E7E39}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每50点对应属性加成
+每300点对应属性加成
 如果赛道不止1项加成，取平均值</t>
         </r>
       </text>
@@ -231,6 +231,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -500,15 +504,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -530,7 +534,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -541,7 +545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -552,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -560,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4510CA-11FD-421F-B814-9817649E7E39}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E23C13-D657-41A9-B355-3B1D45919392}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,6 +235,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -504,7 +508,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/TestHorse/bin/Debug/杂项表.xlsx
+++ b/TestHorse/bin/Debug/杂项表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E23C13-D657-41A9-B355-3B1D45919392}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{72B7253D-2383-4D38-8209-0333EA65C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D38356-92EF-48A0-ADD2-0DFEF9D66126}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,14 +133,6 @@
   </si>
   <si>
     <t>赛道属性加成倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有马的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有赛道的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,6 +231,14 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -508,7 +508,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,32 +532,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
